--- a/biology/Botanique/Écozone_australasienne___plantes_à_graines_par_nom_scientifique/Écozone_australasienne___plantes_à_graines_par_nom_scientifique.xlsx
+++ b/biology/Botanique/Écozone_australasienne___plantes_à_graines_par_nom_scientifique/Écozone_australasienne___plantes_à_graines_par_nom_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacia - fam. Fabacées
 Acacia retinodes - Mimosa des quatre saisons
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Callitris - Cupressacées
 Callitris canescens
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,8 +613,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ear
-Earina - Orchidacées
+          <t>Ear</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Earina - Orchidacées
 Earina autumnalis
 Earina mucronata</t>
         </is>
@@ -610,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,8 +651,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ech
-Echinochloa - Poacées
+          <t>Ech</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Echinochloa - Poacées
 Echinochloa colona
 Echinochloa colonum
 Echinochloa crusgalli
@@ -659,14 +685,7 @@
 Echium italicum
 Echium plantagineum
 Echium pycnanthum
-Echium vulgare
-Ecl
-Eclipta - Astéracées
-Eclipta platyglossa
-Eclipta prostrata
-Ect
-Ectrosia - Poacées
-Ectrosia leporina</t>
+Echium vulgare</t>
         </is>
       </c>
     </row>
@@ -676,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,13 +710,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Ec</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ecl</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eclipta - Astéracées
+Eclipta platyglossa
+Eclipta prostrata</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ec</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ect</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ectrosia - Poacées
+Ectrosia leporina</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Eh</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ehr
-Ehretia - Borraginacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ehr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ehretia - Borraginacées
 Ehretia acuminata
 Ehretia membranifolia
 Ehretia saligna
@@ -708,40 +807,113 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ei</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Eic
-Eichornia - Pontédériacées
-Eichornia crassipes
-Eid
-Eidothea - Protéacées
-Eidothea sp.nov. (Nightcap)
-Ein
-Einadia - Chénopodiacées
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Eic</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Eichornia - Pontédériacées
+Eichornia crassipes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Eidothea - Protéacées
+Eidothea sp.nov. (Nightcap)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ei</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ein</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Einadia - Chénopodiacées
 Einadia hastata
 Einadia nutans 
 Einadia polygonoides
@@ -749,34 +921,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>El</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Ela
-Elacholoma - Scrophulariacées
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elacholoma - Scrophulariacées
 Elacholoma hornii
 Elaeagnus - Élaéagnacées
 Elaeagnus loureiri
@@ -810,9 +987,43 @@
 Elatostema stipitatum
 Elattostachys - Sapindacées
 Elattostachys nervosa
-Elattostachys xylocarpa
-Ele
-Eleocharis - Cypéracées
+Elattostachys xylocarpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ele</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Eleocharis - Cypéracées
 Eleocharis acicularis
 Eleocharis acuta
 Eleocharis atricha
@@ -846,12 +1057,80 @@
 Eleocharis vivipara
 Eleusine - Poacées
 Eleusine indica
-Eleusine tristachya
-Elo
-Elodea - Hydrocharitacées
-Elodea canadensis
-Ely
-Elymus - Poacées
+Eleusine tristachya</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Elo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Elodea - Hydrocharitacées
+Elodea canadensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ely</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Elymus - Poacées
 Elymus ambiguus
 Elymus fertilis
 Elymus glaucus
@@ -863,81 +1142,261 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Em</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Emb
-Embelia - Myrsinacées
-Embelia australiana
-Eme
-Emex - Polygonacées
-Emex australis
-Emi
-Emilia - Astéracées
-Emilia sonchifolia
-Emm
-Emmenosperma - Rhamnacées
-Emmenosperma alphitonioides 
-Emp
-Empodisma - Restionacées
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Embelia - Myrsinacées
+Embelia australiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Em</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Eme</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Emex - Polygonacées
+Emex australis</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Em</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Emi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Emilia - Astéracées
+Emilia sonchifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Em</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Emm</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmenosperma - Rhamnacées
+Emmenosperma alphitonioides </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Em</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Emp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Empodisma - Restionacées
 Empodisma minus</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>En</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Enc
-Enchylaena - Chénopodiacées
-Enchylaena tomentosa 
-End
-Endiandra - Lauracées
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Enc</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enchylaena - Chénopodiacées
+Enchylaena tomentosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Endiandra - Lauracées
 Endiandra compressa
 Endiandra crassiflora
 Endiandra discolor
@@ -951,12 +1410,80 @@
 Endiandra sideroxylon
 Endiandra sieberi
 Endiandra virens
-Endiandra williwilliana
-Enk
-Enkianthus - Éricacées
-Enkianthus quinqueflorus
-Enn
-Enneapogon - Poacées
+Endiandra williwilliana</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Enk</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Enkianthus - Éricacées
+Enkianthus quinqueflorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Enn</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Enneapogon - Poacées
 Enneapogon avenacea
 Enneapogon avenaceus
 Enneapogon cylindricus
@@ -967,9 +1494,43 @@
 Enneapogon nigricans
 Enneapogon pallidus
 Enneapogon polyphyllos
-Enneapogon polyphyllus
-Ent
-Enteropogon - Poacées
+Enneapogon polyphyllus</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>En</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ent</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Enteropogon - Poacées
 Enteropogon acicularis
 Enteropogon ramosus
 Entolasia - Poacées
@@ -979,34 +1540,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Ep</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Epa
-Epacris - Épacridacées
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Epa</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Epacris - Épacridacées
 Epacris breviflora
 Epacris brevifolia
 Epacris calvertiana
@@ -1032,12 +1598,80 @@
 Epacris sparsa
 Epaltes Astéracées
 Epaltes australis
-Epaltes cunninghamii
-Eph
-Ephedra - Éphédracées
-Ephedra distachya
-Epi
-Epilobium - Onagracées
+Epaltes cunninghamii</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ep</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Eph</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ephedra - Éphédracées
+Ephedra distachya</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ep</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Epi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Epilobium - Onagracées
 Epilobium billardierianum
 Epilobium ciliatum
 Epilobium curtisii
@@ -1050,34 +1684,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Er</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Era
-Eragrostis - Poacées
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Era</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Eragrostis - Poacées
 Eragrostis alveiformis
 Eragrostis australasica
 Eragrostis basedowii
@@ -1114,9 +1753,43 @@
 Eragrostis tenella
 Eragrostis tenellula
 Eragrostis tenuifolia
-Eragrostis trachycarpa
-Ere
-Erechtites - Astéracées
+Eragrostis trachycarpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Ere</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Erechtites - Astéracées
 Erechtites valerianifolia
 Eremaea - Myrtacées
 Eremaea fimbriata
@@ -1160,9 +1833,43 @@
 Eremophila verrucosa
 Eremophila willsii
 Eremosyne - Érémosynacées
-Eremosyne pectinata
-Eri
-Eriachne - Poacées
+Eremosyne pectinata</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Eri</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Eriachne - Poacées
 Eriachne aristidea
 Eriachne avenacea
 Eriachne benthamii
@@ -1223,9 +1930,43 @@
 Eriostemon australasius
 Eriostemon myoporoides 
 Eriostemon scaber
-Eriostemon verrucosa
-Ero
-Erodiophyllum - Astéracées
+Eriostemon verrucosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ero</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Erodiophyllum - Astéracées
 Erodiophyllum elderi 
 Erodium - Géraniacées
 Erodium aureum
@@ -1239,17 +1980,119 @@
 Erodium malacoides
 Erodium mauritanicum
 Erodium moschatum
-Erodium pulverulentum
-Eru
-Eruca - Brassicacées
-Eruca sativa
-Erv
-Ervatamia - Apocynacées
+Erodium pulverulentum</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Eru</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Eruca - Brassicacées
+Eruca sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Erv</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ervatamia - Apocynacées
 Ervatamia angustisepala
 Ervum - Fabacées
-Ervum lens
-Ery
-Eryngium- Apiacées
+Ervum lens</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Er</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ery</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Eryngium- Apiacées
 Eryngium ebor falls
 Eryngium expansum
 Eryngium ovinum
@@ -1278,34 +2121,39 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Es</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Esc
-Escallonia - Escalloniacées
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Esc</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Escallonia - Escalloniacées
 Escallonia bifida
 Escallonia franciscana
 Escallonia macrantha
@@ -1315,34 +2163,39 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Eu</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Euc
-Eucalyptus - Myrtacées
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Euc</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Eucalyptus - Myrtacées
 Eucalyptus abbreviata
 Eucalyptus abergiana
 Eucalyptus acaciiformis
@@ -1814,18 +2667,120 @@
 Eucryphia lucida
 Eucryphia milliganii
 Eucryphia moorei
-Eucryphia wilkiei
-Eug
-Eugenia - Myrtacées
+Eucryphia wilkiei</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Eug</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Eugenia - Myrtacées
 Eugenia microphylla
 Eugenia suborbiculare
-Eugenia suborbicularis
-Eul
-Eulalia - Poacées
+Eugenia suborbicularis</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Eul</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Eulalia - Poacées
 Eulalia aurea
-Eulalia fulva
-Euo
-Euodia - Rutacées
+Eulalia fulva</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Euo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Euodia - Rutacées
 Euodia elleryana
 Euodia micrococca
 Euodia sp. 'a' 
@@ -1835,9 +2790,43 @@
 Euonymus chinensis
 Euonymus europaeus
 Euonymus japonicus
-Euonymus laxiflorus
-Eup
-Eupatorium - Astéracées
+Euonymus laxiflorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Eup</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Eupatorium - Astéracées
 Eupatorium hyssopifolium
 Eupatorium japonicum
 Euphorbia - Euphorbiacées
@@ -1877,22 +2866,124 @@
 Euphrasia striata
 Eupomatia - Eupomatiacées
 Eupomatia bennettii
-Eupomatia laurina
-Eur
-Euroschinus - Anacardiacées
+Eupomatia laurina</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Eur</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Euroschinus - Anacardiacées
 Euroschinus falcata
 Eurya - Théacées
 Eurya distichophylla
-Eurya nitida
-Eus
-Euscaphis - Staphyléacées
+Eurya nitida</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Eus</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Euscaphis - Staphyléacées
 Euscaphis japonica
 Eustachys - Poacées
 Eustachys distichophylla
 Eustrephus - Philésiacées
-Eustrephus latifolius
-Eut
-Eutaxia - Fabacées
+Eustrephus latifolius</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Eut</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Eutaxia - Fabacées
 Eutaxia cuneata
 Eutaxia densifolia
 Eutaxia diffusa
@@ -1905,103 +2996,152 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Ev</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Evo
-Evolvulus - Convolvulacées
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Evo</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Evolvulus - Convolvulacées
 Evolvulus alsinoides</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Ew</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Ewa
-Ewartia - Astéracées
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ewa</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Ewartia - Astéracées
 Ewartia meridithae
 Ewartia nubigena</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Ex</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Exc
-Excoecaria - Euphorbiacées
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Exc</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Excoecaria - Euphorbiacées
 Excoecaria agallocha
-Excoecaria dallachyana
-Exo
-Exocarpos - Santalacées
+Excoecaria dallachyana</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ex</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Exo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Exocarpos - Santalacées
 Exocarpos aphyllus
 Exocarpos cupressiformis
 Exocarpos homalocladus
@@ -2018,62 +3158,66 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanguana - fam. Hanguanaceae
 </t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>Macadamia - fam. Protéacées
 Macadamia integrifolia - Noyer du Queensland
@@ -2095,31 +3239,33 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Écozone_australasienne_:_plantes_à_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_australasienne_:_plantes_%C3%A0_graines_par_nom_scientifique</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanda - Orchidacées
 Vanda helvola
